--- a/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/E-commerce_website_Test_Cases .xlsx
+++ b/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/E-commerce_website_Test_Cases .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
   <si>
     <t>Test_CaseID</t>
   </si>
@@ -92,8 +92,14 @@
 3-Click Register</t>
   </si>
   <si>
-    <t>Error message:
-“First Name must be between 1 and 32 characters!”</t>
+    <t>Error message appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name is required.
+</t>
+  </si>
+  <si>
+    <t>Validation message displayed correctly below First Name field in red color</t>
   </si>
   <si>
     <t>TC_REG_003</t>
@@ -107,38 +113,54 @@
 3-Click Register</t>
   </si>
   <si>
+    <t xml:space="preserve">Last name is required.
+</t>
+  </si>
+  <si>
+    <t>Validation message displayed correctly below Last Name field in red color</t>
+  </si>
+  <si>
+    <t>TC_REG_004</t>
+  </si>
+  <si>
+    <t>First Name accepts long input without system failure</t>
+  </si>
+  <si>
+    <t>First Name More than 1000 characters, fill others correctly,
+ click Register</t>
+  </si>
+  <si>
+    <t>1000+ characters</t>
+  </si>
+  <si>
     <t>Error message:
-"Last Name must be between 1 and 32 characters!"</t>
-  </si>
-  <si>
-    <t>TC_REG_004</t>
-  </si>
-  <si>
-    <t>First Name exceeds 32 characters</t>
-  </si>
-  <si>
-    <t>First Name More than 32 characters, fill others correctly,
- click Register</t>
-  </si>
-  <si>
-    <t>33+ characters</t>
+“First Name must be between 1 and 1000 characters!”</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
+    <t>Internal server error page is displayed.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Bug logged as BUG_REG_001</t>
+  </si>
+  <si>
     <t>TC_REG_005</t>
   </si>
   <si>
-    <t>Last Name exceeds 32 characters</t>
-  </si>
-  <si>
-    <t>Last Name More than 32 characters, fill others correctly,
+    <t>Last Name accepts long input without system failure</t>
+  </si>
+  <si>
+    <t>Last Name More than 1000 characters, fill others correctly,
 click Register</t>
   </si>
   <si>
     <t>Error message :
-"Last Name must be between 1 and 32 characters!*</t>
+"Last Name must be between 1 and 1000 characters!*</t>
   </si>
   <si>
     <t>TC_REG_006</t>
@@ -155,8 +177,10 @@
     <t>password : 12345</t>
   </si>
   <si>
-    <t>"Error message :
-“Password must be between 6 and 64 characters!”</t>
+    <t xml:space="preserve">"Error message :
+"Password must meet the following rules:
+must have at least 6 characters and not greater than 64 characters
+</t>
   </si>
   <si>
     <t>TC_REG_007</t>
@@ -172,10 +196,6 @@
     <t>Password = 64+ characters</t>
   </si>
   <si>
-    <t>Error message displayed:
-“Password must be between 6 and 64 characters!”</t>
-  </si>
-  <si>
     <t>TC_REG_008</t>
   </si>
   <si>
@@ -186,8 +206,13 @@
 click Register</t>
   </si>
   <si>
-    <t>Global warning displayed:
-“Warning: E-Mail Address is already registered!”</t>
+    <t>error message:
+“The specified email already exists"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Error message :
+"The specified email already exists"
+</t>
   </si>
   <si>
     <t>TC_REG_009</t>
@@ -200,11 +225,16 @@
 click Register</t>
   </si>
   <si>
-    <t>test@invalid</t>
+    <t>test@@invalid.com</t>
   </si>
   <si>
     <t>Error message:
-“E-Mail Address does not appear to be valid!”</t>
+"Please enter a valid email address"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message:
+"Please enter a valid email address."
+</t>
   </si>
   <si>
     <t>TC_REG_010</t>
@@ -218,12 +248,17 @@
 3-Click Register</t>
   </si>
   <si>
-    <t>Company = "' OR 1=1 --"</t>
-  </si>
-  <si>
-    <t>Input treated as normal text
-No database error
-No crash</t>
+    <t xml:space="preserve">Company = "' OR 1=1 --" </t>
+  </si>
+  <si>
+    <t>"The system should block 
+the request or sanitize the input to prevent SQL injection. 
+A security warning or block page is expected."</t>
+  </si>
+  <si>
+    <t>The request was blocked by Cloudflare (WAF). A 
+"Sorry, you have been blocked" 
+page was displayed instead of processing the registration.</t>
   </si>
   <si>
     <t>TC_REG_011</t>
@@ -237,6 +272,10 @@
   </si>
   <si>
     <t>"   "</t>
+  </si>
+  <si>
+    <t>"The system accepted the spaces as a valid name &amp; 
+successfully registered the account."</t>
   </si>
   <si>
     <t>TC_REG_012</t>
@@ -258,6 +297,10 @@
     <t>System trims spaces and account is created successfully.</t>
   </si>
   <si>
+    <t>The system failed to trim the spaces and displayed a
+validation error: "Please enter a valid email address."</t>
+  </si>
+  <si>
     <t>TC_REG_013</t>
   </si>
   <si>
@@ -269,7 +312,15 @@
 3-Click Register</t>
   </si>
   <si>
-    <t>Password = " "</t>
+    <t>Password = "      "</t>
+  </si>
+  <si>
+    <t>Error message displayed:
+“Password must be between 6 and 64 characters!”</t>
+  </si>
+  <si>
+    <t>Account created successfully. 
+The system accepted 6 spaces as a valid password.</t>
   </si>
   <si>
     <t>TC_REG_014</t>
@@ -1016,14 +1067,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="34.13"/>
+    <col customWidth="1" min="2" max="2" width="39.88"/>
     <col customWidth="1" min="3" max="3" width="25.63"/>
     <col customWidth="1" min="4" max="4" width="44.13"/>
     <col customWidth="1" min="5" max="5" width="26.75"/>
-    <col customWidth="1" min="6" max="6" width="46.25"/>
+    <col customWidth="1" min="6" max="6" width="50.13"/>
     <col customWidth="1" min="7" max="7" width="8.88"/>
-    <col customWidth="1" min="8" max="8" width="37.88"/>
+    <col customWidth="1" min="8" max="8" width="51.25"/>
     <col customWidth="1" min="9" max="9" width="20.0"/>
+    <col customWidth="1" min="10" max="10" width="59.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1106,341 +1158,425 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
@@ -1448,255 +1584,255 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
@@ -1704,19 +1840,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
@@ -1724,19 +1860,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
@@ -1744,79 +1880,79 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>16</v>
@@ -1824,79 +1960,79 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>16</v>
@@ -1904,19 +2040,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>

--- a/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/E-commerce_website_Test_Cases .xlsx
+++ b/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/E-commerce_website_Test_Cases .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="232">
   <si>
     <t>Test_CaseID</t>
   </si>
@@ -341,6 +341,10 @@
 “First Name must contain only alphabetic characters!”</t>
   </si>
   <si>
+    <t>The account was created successfully with special
+characters in the name.</t>
+  </si>
+  <si>
     <t>TC_REG_015</t>
   </si>
   <si>
@@ -355,8 +359,13 @@
     <t>First Name = "A"</t>
   </si>
   <si>
-    <t>Account created successfully
-“Your Account Has Been Created!” page displayed</t>
+    <t>System should display: 
+"First Name must be between 2 and 1000 characters!" 
+and block registration.</t>
+  </si>
+  <si>
+    <t>Account created successfully and redirected to 
+"Your Account Has Been Created!" page.</t>
   </si>
   <si>
     <t>TC_REG_016</t>
@@ -375,6 +384,9 @@
   </si>
   <si>
     <t>Expected: Account created successfully</t>
+  </si>
+  <si>
+    <t>Account created successfully.</t>
   </si>
   <si>
     <t>TC_REG_017</t>
@@ -398,6 +410,10 @@
 No unexpected behavior</t>
   </si>
   <si>
+    <t>Request was blocked by Cloudflare security service (WAF). 
+Access denied page displayed.</t>
+  </si>
+  <si>
     <t>TC_REG_018</t>
   </si>
   <si>
@@ -418,6 +434,10 @@
 ⚠ Important: System must not crash</t>
   </si>
   <si>
+    <t>Account created successfully and Arabic characters are displayed 
+correctly in the customer info page</t>
+  </si>
+  <si>
     <t>TC_REG_019</t>
   </si>
   <si>
@@ -441,6 +461,10 @@
     <t>Low</t>
   </si>
   <si>
+    <t>Account created successfully. 
+Emoji is rendered correctly in the user profile.</t>
+  </si>
+  <si>
     <t>TC_REG_020</t>
   </si>
   <si>
@@ -455,8 +479,12 @@
     <t>First Name = 200 characters</t>
   </si>
   <si>
-    <t>Error message displayed:
-“First Name must be between 1 and 32 characters!”</t>
+    <t>Account created successfully.
+Full name displayed correctly in profile.</t>
+  </si>
+  <si>
+    <t>Account created successfully and redirected to
+ "Your Account Has Been Created!".</t>
   </si>
   <si>
     <t>TC_REG_021</t>
@@ -507,6 +535,9 @@
   </si>
   <si>
     <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Account created Successfully</t>
   </si>
   <si>
     <t>TC_REG_023</t>
@@ -551,6 +582,10 @@
 </t>
   </si>
   <si>
+    <t>Account created successfully. Company field is blank in the customer 
+information page.</t>
+  </si>
+  <si>
     <t>TC_REG_026</t>
   </si>
   <si>
@@ -563,6 +598,9 @@
     <t>1-Fill required fields with valid data
 2-Enter "@@@###$$$" in Company field
 3-Click Register</t>
+  </si>
+  <si>
+    <t>Company = "@@@###$$$"</t>
   </si>
   <si>
     <t>Either:
@@ -572,6 +610,10 @@
 System must not crash</t>
   </si>
   <si>
+    <t>Account created successfully. The symbols "@@@###$$$" are 
+displayed correctly in the Company name field</t>
+  </si>
+  <si>
     <t>TC_REG_027</t>
   </si>
   <si>
@@ -579,7 +621,7 @@
   </si>
   <si>
     <t>1-Fill required fields
-2-Enter 200+ characters in Company field
+2-Enter 1000+ characters in Company field
 3-Click Register</t>
   </si>
   <si>
@@ -603,8 +645,15 @@
     <t>Company = " TechCorp "</t>
   </si>
   <si>
-    <t>Spaces trimmed automatically
-Account created</t>
+    <t>System should trim leading and trailing spaces 
+before saving to the database.</t>
+  </si>
+  <si>
+    <t>Spaces were preserved and displayed in the profile. 
+No trimming applied</t>
+  </si>
+  <si>
+    <t>Fail (Bug de Data Sanitization)</t>
   </si>
   <si>
     <t>TC_REG_029</t>
@@ -645,6 +694,10 @@
 Account NOT created</t>
   </si>
   <si>
+    <t>The system displayed the expected validation error message
+ under the confirm password field.</t>
+  </si>
+  <si>
     <t>TC_REG_031</t>
   </si>
   <si>
@@ -657,8 +710,16 @@
 4-Click Register</t>
   </si>
   <si>
+    <t>Password = Test123
+Confirm Password = [Empty]</t>
+  </si>
+  <si>
     <t>Validation error displayed
 Account NOT created</t>
+  </si>
+  <si>
+    <t>The system displayed the validation
+ message: "Password is required."</t>
   </si>
   <si>
     <t>TC_REG_032</t>
@@ -673,9 +734,18 @@
 4-Click Register</t>
   </si>
   <si>
+    <t>Password = Test123
+Confirm Password = " "</t>
+  </si>
+  <si>
     <t>Validation error displayed
 Spaces not accepted
 No crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system displayed the message
+"The password and confirmation password do not match."
+</t>
   </si>
   <si>
     <t>TC_REG_033</t>
@@ -690,6 +760,10 @@
 4-Click Register</t>
   </si>
   <si>
+    <t>Password = Test123
+Confirm Password = test123</t>
+  </si>
+  <si>
     <t>Validation error displayed
 System is case-sensitive
 Account NOT created</t>
@@ -707,6 +781,11 @@
 4-Click Register</t>
   </si>
   <si>
+    <t xml:space="preserve">The system displayed the message
+"The password and confirmation password do not match."
+</t>
+  </si>
+  <si>
     <t>TC_REG_035</t>
   </si>
   <si>
@@ -718,8 +797,13 @@
 3-Click Register</t>
   </si>
   <si>
-    <t>Validation errors displayed for both fields
-Account NOT created</t>
+    <t>Password = [empty]
+Confirm Password = [empty]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system displayed the message
+"Password is required."
+</t>
   </si>
   <si>
     <t>TC_REG_036</t>
@@ -735,6 +819,9 @@
     <t>Default state should match business requirement
 (Checked OR Unchecked )
 No UI glitch</t>
+  </si>
+  <si>
+    <t>The Newsletter checkbox is Checked by default when the page loads.</t>
   </si>
   <si>
     <t>TC_REG_037</t>
@@ -782,12 +869,21 @@
 5-Click Register</t>
   </si>
   <si>
+    <t>Email 1: TESTUSER@gmail.com 
+ Email 2: testuser@gmail.com.</t>
+  </si>
+  <si>
     <t>System should treat emails as identical
 Error message: “E-Mail Address is already registered!”
 Account NOT created
 (Emails should be case-insensitive)</t>
   </si>
   <si>
+    <t>the system displayed the message 
+"E-Mail Address is already registered!”
+Account NOT created</t>
+  </si>
+  <si>
     <t>TC_REG_040</t>
   </si>
   <si>
@@ -804,6 +900,11 @@
   <si>
     <t>Validation message displayed
 Example: “E-Mail Address is required!”
+Account NOT created</t>
+  </si>
+  <si>
+    <t>the system displayed the message 
+"Email is required."
 Account NOT created</t>
   </si>
 </sst>
@@ -1073,8 +1174,8 @@
     <col customWidth="1" min="5" max="5" width="26.75"/>
     <col customWidth="1" min="6" max="6" width="50.13"/>
     <col customWidth="1" min="7" max="7" width="8.88"/>
-    <col customWidth="1" min="8" max="8" width="51.25"/>
-    <col customWidth="1" min="9" max="9" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="52.13"/>
+    <col customWidth="1" min="9" max="9" width="24.13"/>
     <col customWidth="1" min="10" max="10" width="59.5"/>
   </cols>
   <sheetData>
@@ -1512,444 +1613,582 @@
       <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>185</v>
@@ -1957,105 +2196,144 @@
       <c r="G36" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
